--- a/public/excel/СВОД ЗАКУПКИ БАС ШАБЛОН.xlsx
+++ b/public/excel/СВОД ЗАКУПКИ БАС ШАБЛОН.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <r>
       <rPr>
@@ -48,7 +48,7 @@
     <t xml:space="preserve">№ п/п</t>
   </si>
   <si>
-    <t xml:space="preserve">Субъект РФ </t>
+    <t xml:space="preserve">Наименование БПЛА</t>
   </si>
   <si>
     <t xml:space="preserve">Поставлено
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t xml:space="preserve">План</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Марка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Модель</t>
   </si>
   <si>
     <t xml:space="preserve">Количество, шт.</t>
@@ -80,7 +86,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00[$₽-419];\-#,##0.00[$₽-419]"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -123,6 +129,12 @@
       <color rgb="FF003300"/>
       <name val="Times New Roman"/>
       <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -181,7 +193,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -196,6 +208,10 @@
     </xf>
     <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -275,10 +291,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="M11" activeCellId="0" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -334,37 +350,45 @@
         <v>6</v>
       </c>
       <c r="J3" s="3"/>
+      <c r="K3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -372,6 +396,8 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/public/excel/СВОД ЗАКУПКИ БАС ШАБЛОН.xlsx
+++ b/public/excel/СВОД ЗАКУПКИ БАС ШАБЛОН.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <r>
       <rPr>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t xml:space="preserve">План</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поставщик</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Производитель</t>
   </si>
   <si>
     <t xml:space="preserve">Марка</t>
@@ -291,10 +297,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M11" activeCellId="0" sqref="M11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P9" activeCellId="0" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -309,7 +315,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="9.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -356,39 +365,47 @@
       <c r="L3" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="M3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -398,6 +415,8 @@
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/public/excel/СВОД ЗАКУПКИ БАС ШАБЛОН.xlsx
+++ b/public/excel/СВОД ЗАКУПКИ БАС ШАБЛОН.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <r>
       <rPr>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t xml:space="preserve">Модель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОКПД 2</t>
   </si>
   <si>
     <t xml:space="preserve">Количество, шт.</t>
@@ -297,10 +300,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P9" activeCellId="0" sqref="P9"/>
+      <selection pane="topLeft" activeCell="Q6" activeCellId="0" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -371,41 +374,45 @@
       <c r="N3" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="O3" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="F4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="H4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -417,6 +424,7 @@
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/public/excel/СВОД ЗАКУПКИ БАС ШАБЛОН.xlsx
+++ b/public/excel/СВОД ЗАКУПКИ БАС ШАБЛОН.xlsx
@@ -51,19 +51,17 @@
     <t xml:space="preserve">Наименование БПЛА</t>
   </si>
   <si>
-    <t xml:space="preserve">Поставлено
-(находится в поставке в ОО)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Законтрактовано
-(подписан контракт)</t>
+    <t xml:space="preserve">План</t>
   </si>
   <si>
     <t xml:space="preserve">В закупочных процедурах
 (объявлена закупка)</t>
   </si>
   <si>
-    <t xml:space="preserve">План</t>
+    <t xml:space="preserve">Законтрактовано (подписан контракт, оборудование в поставке)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поставлено в ОО</t>
   </si>
   <si>
     <t xml:space="preserve">Поставщик</t>
@@ -95,7 +93,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00[$₽-419];\-#,##0.00[$₽-419]"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -139,6 +137,13 @@
       <name val="Times New Roman"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF003300"/>
+      <name val="Times New Roman"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -202,7 +207,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -219,7 +224,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -302,8 +311,8 @@
   </sheetPr>
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q6" activeCellId="0" sqref="Q6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -350,10 +359,10 @@
         <v>3</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="4"/>
       <c r="G3" s="3" t="s">
         <v>5</v>
       </c>
@@ -362,19 +371,19 @@
         <v>6</v>
       </c>
       <c r="J3" s="3"/>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -405,11 +414,11 @@
       <c r="J4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/public/excel/СВОД ЗАКУПКИ БАС ШАБЛОН.xlsx
+++ b/public/excel/СВОД ЗАКУПКИ БАС ШАБЛОН.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист2" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Лист2" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
   <si>
     <r>
       <rPr>
@@ -51,6 +51,9 @@
     <t xml:space="preserve">Наименование БПЛА</t>
   </si>
   <si>
+    <t xml:space="preserve">Категория БАС</t>
+  </si>
+  <si>
     <t xml:space="preserve">План</t>
   </si>
   <si>
@@ -83,17 +86,27 @@
   </si>
   <si>
     <t xml:space="preserve">Сумма, руб. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мультиротор легкий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Самолет легкий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Образовательные БАС</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00[$₽-419];\-#,##0.00[$₽-419]"/>
+    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -143,7 +156,8 @@
       <sz val="10"/>
       <color rgb="FF003300"/>
       <name val="Times New Roman"/>
-      <family val="0"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -151,8 +165,23 @@
       <family val="1"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF003300"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,8 +194,14 @@
         <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.3999"/>
+        <bgColor rgb="FFFF6600"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -181,6 +216,27 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -207,29 +263,85 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -264,7 +376,7 @@
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FFE96F6D"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFC9DAF8"/>
       <rgbColor rgb="FF000080"/>
@@ -304,136 +416,372 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A2:AE6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AE6" activeCellId="0" sqref="AE6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="9.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="35.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="11.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="11.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="9.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="10.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+    <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="3" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="5" t="s">
+      <c r="I3" s="5"/>
+      <c r="J3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="K3" s="5"/>
+      <c r="L3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="P3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
     </row>
-    <row r="4" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
+    <row r="4" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="E4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="G4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="3" t="s">
+      <c r="I4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
+      <c r="K4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="T4" s="8"/>
+      <c r="U4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="V4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="W4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE4" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q5" s="14" t="n">
+        <f aca="false">D5+D6+D9</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="14" t="n">
+        <f aca="false">D7+D8</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="14" t="n">
+        <f aca="false">D10+D11+D12</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="15"/>
+      <c r="U5" s="16" t="n">
+        <f aca="false">F5+F6+F9</f>
+        <v>0</v>
+      </c>
+      <c r="V5" s="16" t="n">
+        <f aca="false">F7+F8</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="16" t="n">
+        <f aca="false">F10+F11+F12</f>
+        <v>0</v>
+      </c>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="16" t="n">
+        <f aca="false">H5+H6+H9</f>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="16" t="n">
+        <f aca="false">H7+H8</f>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="16" t="n">
+        <f aca="false">H10+H11+H12</f>
+        <v>0</v>
+      </c>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="16" t="n">
+        <f aca="false">J5+J6+J9</f>
+        <v>0</v>
+      </c>
+      <c r="AD5" s="16" t="n">
+        <f aca="false">J7+J8</f>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="16" t="n">
+        <f aca="false">J10+J11+J12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T6" s="18"/>
+      <c r="X6" s="19"/>
+      <c r="AB6" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A2:J2"/>
+  <mergeCells count="17">
+    <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="AC3:AE3"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
